--- a/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
+++ b/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="19">
   <si>
     <t>Thriller</t>
   </si>
@@ -76,6 +76,12 @@
   <si>
     <t>DATA EXTRACTIONS</t>
   </si>
+  <si>
+    <t>Number Of Each Movie Type</t>
+  </si>
+  <si>
+    <t>Answers:</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -162,22 +168,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
@@ -192,6 +321,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
@@ -491,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N205"/>
+  <dimension ref="B1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,48 +663,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
-      <c r="J3" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -563,6 +743,26 @@
       </c>
       <c r="E6">
         <v>2008</v>
+      </c>
+      <c r="J6" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -578,6 +778,26 @@
       <c r="E7">
         <v>2019</v>
       </c>
+      <c r="J7" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -592,6 +812,26 @@
       <c r="E8">
         <v>2003</v>
       </c>
+      <c r="J8" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -606,6 +846,26 @@
       <c r="E9">
         <v>2010</v>
       </c>
+      <c r="J9" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -620,6 +880,26 @@
       <c r="E10">
         <v>2016</v>
       </c>
+      <c r="J10" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -634,6 +914,26 @@
       <c r="E11">
         <v>2005</v>
       </c>
+      <c r="J11" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -647,6 +947,26 @@
       </c>
       <c r="E12">
         <v>2019</v>
+      </c>
+      <c r="J12" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -662,6 +982,26 @@
       <c r="E13">
         <v>2008</v>
       </c>
+      <c r="J13" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -675,6 +1015,26 @@
       </c>
       <c r="E14">
         <v>2015</v>
+      </c>
+      <c r="J14" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -690,6 +1050,26 @@
       <c r="E15">
         <v>2008</v>
       </c>
+      <c r="J15" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -704,8 +1084,28 @@
       <c r="E16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J16" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -718,8 +1118,28 @@
       <c r="E17">
         <v>2014</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J17" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -732,8 +1152,28 @@
       <c r="E18">
         <v>2003</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J18" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -746,8 +1186,28 @@
       <c r="E19">
         <v>2011</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J19" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -760,8 +1220,28 @@
       <c r="E20">
         <v>2014</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J20" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -774,8 +1254,28 @@
       <c r="E21">
         <v>2007</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J21" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -788,8 +1288,28 @@
       <c r="E22">
         <v>2007</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J22" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -802,8 +1322,28 @@
       <c r="E23">
         <v>2010</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J23" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -816,8 +1356,28 @@
       <c r="E24">
         <v>2012</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J24" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -830,8 +1390,28 @@
       <c r="E25">
         <v>2005</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J25" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -844,8 +1424,28 @@
       <c r="E26">
         <v>2006</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J26" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>10</v>
       </c>
@@ -858,8 +1458,28 @@
       <c r="E27">
         <v>2007</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J27" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -872,8 +1492,28 @@
       <c r="E28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J28" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -886,8 +1526,28 @@
       <c r="E29">
         <v>2012</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J29" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -900,8 +1560,28 @@
       <c r="E30">
         <v>2008</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J30" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -914,8 +1594,28 @@
       <c r="E31">
         <v>2001</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J31" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -928,8 +1628,28 @@
       <c r="E32">
         <v>2014</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J32" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -942,8 +1662,28 @@
       <c r="E33">
         <v>2011</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J33" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -956,8 +1696,28 @@
       <c r="E34">
         <v>2012</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J34" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1730,28 @@
       <c r="E35">
         <v>2000</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J35" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1764,28 @@
       <c r="E36">
         <v>2010</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J36" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -998,8 +1798,28 @@
       <c r="E37">
         <v>2012</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J37" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1832,28 @@
       <c r="E38">
         <v>2010</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J38" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1866,28 @@
       <c r="E39">
         <v>2004</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J39" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1900,28 @@
       <c r="E40">
         <v>2010</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J40" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>8</v>
       </c>
@@ -1054,8 +1934,28 @@
       <c r="E41">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J41" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1968,28 @@
       <c r="E42">
         <v>2014</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J42" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +2002,28 @@
       <c r="E43">
         <v>2002</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J43" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +2036,28 @@
       <c r="E44">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J44" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +2070,28 @@
       <c r="E45">
         <v>2016</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J45" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L45" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -1124,8 +2104,28 @@
       <c r="E46">
         <v>2008</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J46" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +2138,28 @@
       <c r="E47">
         <v>2009</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J47" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +2172,28 @@
       <c r="E48">
         <v>2001</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J48" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1166,8 +2206,28 @@
       <c r="E49">
         <v>2013</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J49" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>10</v>
       </c>
@@ -1180,8 +2240,28 @@
       <c r="E50">
         <v>2008</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J50" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -1194,8 +2274,28 @@
       <c r="E51">
         <v>2013</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J51" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +2308,28 @@
       <c r="E52">
         <v>2009</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J52" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>10</v>
       </c>
@@ -1222,8 +2342,28 @@
       <c r="E53">
         <v>2016</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J53" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>8</v>
       </c>
@@ -1236,8 +2376,28 @@
       <c r="E54">
         <v>2002</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J54" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +2410,28 @@
       <c r="E55">
         <v>2013</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J55" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +2444,28 @@
       <c r="E56">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J56" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>8</v>
       </c>
@@ -1278,8 +2478,28 @@
       <c r="E57">
         <v>2002</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J57" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>8</v>
       </c>
@@ -1292,8 +2512,28 @@
       <c r="E58">
         <v>2016</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J58" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M58" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -1306,8 +2546,28 @@
       <c r="E59">
         <v>2014</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J59" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M59" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>8</v>
       </c>
@@ -1320,8 +2580,28 @@
       <c r="E60">
         <v>2007</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J60" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M60" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>8</v>
       </c>
@@ -1334,8 +2614,28 @@
       <c r="E61">
         <v>2008</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J61" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>8</v>
       </c>
@@ -1348,8 +2648,28 @@
       <c r="E62">
         <v>2014</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J62" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M62" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>10</v>
       </c>
@@ -1362,8 +2682,28 @@
       <c r="E63">
         <v>2010</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J63" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N63" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1376,8 +2716,28 @@
       <c r="E64">
         <v>2000</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J64" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L64" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +2750,28 @@
       <c r="E65">
         <v>2002</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J65" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -1404,8 +2784,28 @@
       <c r="E66">
         <v>2013</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J66" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +2818,28 @@
       <c r="E67">
         <v>2015</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J67" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L67" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>3</v>
       </c>
@@ -1432,8 +2852,28 @@
       <c r="E68">
         <v>2012</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J68" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>10</v>
       </c>
@@ -1446,8 +2886,28 @@
       <c r="E69">
         <v>2019</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J69" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +2920,28 @@
       <c r="E70">
         <v>2011</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J70" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>3</v>
       </c>
@@ -1474,8 +2954,28 @@
       <c r="E71">
         <v>2011</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J71" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L71" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -1488,8 +2988,28 @@
       <c r="E72">
         <v>2002</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J72" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>8</v>
       </c>
@@ -1502,8 +3022,28 @@
       <c r="E73">
         <v>2008</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J73" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>8</v>
       </c>
@@ -1516,8 +3056,28 @@
       <c r="E74">
         <v>2003</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J74" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +3090,28 @@
       <c r="E75">
         <v>2016</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J75" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L75" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +3124,28 @@
       <c r="E76">
         <v>2001</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J76" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>8</v>
       </c>
@@ -1558,8 +3158,28 @@
       <c r="E77">
         <v>2019</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J77" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M77" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1572,8 +3192,28 @@
       <c r="E78">
         <v>2002</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J78" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L78" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +3226,28 @@
       <c r="E79">
         <v>2000</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J79" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L79" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>3</v>
       </c>
@@ -1600,8 +3260,28 @@
       <c r="E80">
         <v>2000</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J80" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L80" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +3294,28 @@
       <c r="E81">
         <v>2008</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J81" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>10</v>
       </c>
@@ -1628,8 +3328,28 @@
       <c r="E82">
         <v>2012</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J82" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N82" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>8</v>
       </c>
@@ -1642,8 +3362,28 @@
       <c r="E83">
         <v>2019</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J83" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M83" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>8</v>
       </c>
@@ -1656,8 +3396,28 @@
       <c r="E84">
         <v>2008</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J84" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M84" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1670,8 +3430,28 @@
       <c r="E85">
         <v>2014</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J85" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K85" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>3</v>
       </c>
@@ -1684,8 +3464,28 @@
       <c r="E86">
         <v>2009</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J86" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L86" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -1698,8 +3498,28 @@
       <c r="E87">
         <v>2000</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J87" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>10</v>
       </c>
@@ -1712,8 +3532,28 @@
       <c r="E88">
         <v>2007</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J88" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N88" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>4</v>
       </c>
@@ -1726,8 +3566,28 @@
       <c r="E89">
         <v>2012</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J89" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K89" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>4</v>
       </c>
@@ -1740,8 +3600,28 @@
       <c r="E90">
         <v>2019</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J90" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K90" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>4</v>
       </c>
@@ -1754,8 +3634,28 @@
       <c r="E91">
         <v>2002</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J91" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K91" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>3</v>
       </c>
@@ -1768,8 +3668,28 @@
       <c r="E92">
         <v>2004</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J92" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L92" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>10</v>
       </c>
@@ -1782,8 +3702,28 @@
       <c r="E93">
         <v>2019</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J93" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>8</v>
       </c>
@@ -1796,8 +3736,28 @@
       <c r="E94">
         <v>2007</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J94" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M94" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -1810,8 +3770,28 @@
       <c r="E95">
         <v>2007</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J95" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K95" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -1824,8 +3804,28 @@
       <c r="E96">
         <v>2013</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J96" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -1838,8 +3838,28 @@
       <c r="E97">
         <v>2000</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J97" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>10</v>
       </c>
@@ -1852,8 +3872,28 @@
       <c r="E98">
         <v>2016</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J98" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N98" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +3906,28 @@
       <c r="E99">
         <v>2017</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J99" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L99" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -1880,8 +3940,28 @@
       <c r="E100">
         <v>2015</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J100" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -1894,8 +3974,28 @@
       <c r="E101">
         <v>2011</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J101" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -1908,8 +4008,28 @@
       <c r="E102">
         <v>2019</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J102" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +4042,28 @@
       <c r="E103">
         <v>2012</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J103" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L103" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>8</v>
       </c>
@@ -1936,8 +4076,28 @@
       <c r="E104">
         <v>2009</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J104" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M104" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +4110,28 @@
       <c r="E105">
         <v>2001</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J105" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L105" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>3</v>
       </c>
@@ -1964,8 +4144,28 @@
       <c r="E106">
         <v>2013</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J106" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L106" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -1978,8 +4178,28 @@
       <c r="E107">
         <v>2004</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J107" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K107" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>10</v>
       </c>
@@ -1992,8 +4212,28 @@
       <c r="E108">
         <v>2006</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J108" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N108" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -2006,8 +4246,28 @@
       <c r="E109">
         <v>2000</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J109" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>8</v>
       </c>
@@ -2020,8 +4280,28 @@
       <c r="E110">
         <v>2005</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J110" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M110" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -2034,8 +4314,28 @@
       <c r="E111">
         <v>2010</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J111" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +4348,28 @@
       <c r="E112">
         <v>2005</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J112" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L112" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -2062,8 +4382,28 @@
       <c r="E113">
         <v>2000</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J113" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2076,8 +4416,28 @@
       <c r="E114">
         <v>2010</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J114" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L114" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>3</v>
       </c>
@@ -2090,8 +4450,28 @@
       <c r="E115">
         <v>2011</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J115" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L115" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>3</v>
       </c>
@@ -2104,8 +4484,28 @@
       <c r="E116">
         <v>2020</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J116" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L116" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -2118,8 +4518,28 @@
       <c r="E117">
         <v>2004</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J117" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>0</v>
       </c>
@@ -2132,8 +4552,28 @@
       <c r="E118">
         <v>2003</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J118" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +4586,28 @@
       <c r="E119">
         <v>2012</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J119" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M119" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>0</v>
       </c>
@@ -2160,8 +4620,28 @@
       <c r="E120">
         <v>2009</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J120" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2174,8 +4654,28 @@
       <c r="E121">
         <v>2016</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J121" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K121" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>8</v>
       </c>
@@ -2188,8 +4688,28 @@
       <c r="E122">
         <v>2015</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J122" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M122" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>10</v>
       </c>
@@ -2202,8 +4722,28 @@
       <c r="E123">
         <v>2006</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J123" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N123" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2216,8 +4756,28 @@
       <c r="E124">
         <v>2001</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J124" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L124" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -2230,8 +4790,28 @@
       <c r="E125">
         <v>2013</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J125" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>4</v>
       </c>
@@ -2244,8 +4824,28 @@
       <c r="E126">
         <v>2015</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J126" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K126" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>4</v>
       </c>
@@ -2258,8 +4858,28 @@
       <c r="E127">
         <v>2015</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J127" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K127" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>8</v>
       </c>
@@ -2272,8 +4892,28 @@
       <c r="E128">
         <v>2001</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J128" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M128" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>10</v>
       </c>
@@ -2286,8 +4926,28 @@
       <c r="E129">
         <v>2016</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J129" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N129" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>10</v>
       </c>
@@ -2300,8 +4960,28 @@
       <c r="E130">
         <v>2014</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J130" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N130" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>8</v>
       </c>
@@ -2314,8 +4994,28 @@
       <c r="E131">
         <v>2007</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J131" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M131" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -2328,8 +5028,28 @@
       <c r="E132">
         <v>2003</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J132" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K132" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N132" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>0</v>
       </c>
@@ -2342,8 +5062,28 @@
       <c r="E133">
         <v>2002</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J133" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M133" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N133" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -2356,8 +5096,28 @@
       <c r="E134">
         <v>2019</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J134" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K134" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M134" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>4</v>
       </c>
@@ -2370,8 +5130,28 @@
       <c r="E135">
         <v>2001</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J135" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K135" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>0</v>
       </c>
@@ -2384,8 +5164,28 @@
       <c r="E136">
         <v>2018</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J136" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M136" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N136" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>10</v>
       </c>
@@ -2398,8 +5198,28 @@
       <c r="E137">
         <v>2012</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J137" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M137" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N137" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>8</v>
       </c>
@@ -2412,8 +5232,28 @@
       <c r="E138">
         <v>2012</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J138" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K138" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M138" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N138" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>0</v>
       </c>
@@ -2426,8 +5266,28 @@
       <c r="E139">
         <v>2008</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J139" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K139" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M139" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N139" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>0</v>
       </c>
@@ -2440,8 +5300,28 @@
       <c r="E140">
         <v>2003</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J140" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K140" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M140" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +5334,28 @@
       <c r="E141">
         <v>2013</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J141" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K141" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L141" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M141" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N141" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -2468,8 +5368,28 @@
       <c r="E142">
         <v>2012</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J142" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M142" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N142" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>8</v>
       </c>
@@ -2482,8 +5402,28 @@
       <c r="E143">
         <v>2016</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J143" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M143" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N143" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2496,8 +5436,28 @@
       <c r="E144">
         <v>2018</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J144" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K144" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M144" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>8</v>
       </c>
@@ -2510,8 +5470,28 @@
       <c r="E145">
         <v>2002</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J145" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M145" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N145" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -2524,8 +5504,28 @@
       <c r="E146">
         <v>2010</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J146" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K146" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M146" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N146" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>4</v>
       </c>
@@ -2538,8 +5538,28 @@
       <c r="E147">
         <v>2019</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J147" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K147" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M147" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N147" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>8</v>
       </c>
@@ -2552,8 +5572,28 @@
       <c r="E148">
         <v>2007</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J148" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M148" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N148" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>10</v>
       </c>
@@ -2566,8 +5606,28 @@
       <c r="E149">
         <v>2008</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J149" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M149" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N149" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>8</v>
       </c>
@@ -2580,8 +5640,28 @@
       <c r="E150">
         <v>2018</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J150" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K150" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M150" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N150" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>3</v>
       </c>
@@ -2594,8 +5674,28 @@
       <c r="E151">
         <v>2001</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J151" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L151" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +5708,28 @@
       <c r="E152">
         <v>2019</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J152" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K152" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L152" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M152" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N152" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>3</v>
       </c>
@@ -2622,8 +5742,28 @@
       <c r="E153">
         <v>2020</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J153" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K153" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L153" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M153" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N153" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>0</v>
       </c>
@@ -2636,8 +5776,28 @@
       <c r="E154">
         <v>2018</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J154" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K154" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M154" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N154" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>10</v>
       </c>
@@ -2650,8 +5810,28 @@
       <c r="E155">
         <v>2005</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J155" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K155" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M155" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N155" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +5844,28 @@
       <c r="E156">
         <v>2009</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J156" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L156" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M156" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N156" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>0</v>
       </c>
@@ -2678,8 +5878,28 @@
       <c r="E157">
         <v>2015</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J157" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L157" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M157" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N157" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>10</v>
       </c>
@@ -2692,8 +5912,28 @@
       <c r="E158">
         <v>2018</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J158" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K158" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M158" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N158" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -2706,8 +5946,28 @@
       <c r="E159">
         <v>2011</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J159" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K159" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L159" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N159" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -2720,8 +5980,28 @@
       <c r="E160">
         <v>2017</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J160" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L160" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M160" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N160" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +6014,28 @@
       <c r="E161">
         <v>2016</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J161" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K161" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L161" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M161" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N161" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -2748,8 +6048,28 @@
       <c r="E162">
         <v>2018</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J162" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M162" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N162" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +6082,28 @@
       <c r="E163">
         <v>2004</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J163" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K163" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M163" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N163" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>8</v>
       </c>
@@ -2776,8 +6116,28 @@
       <c r="E164">
         <v>2001</v>
       </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J164" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K164" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M164" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N164" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>0</v>
       </c>
@@ -2790,8 +6150,28 @@
       <c r="E165">
         <v>2007</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J165" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K165" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M165" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N165" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>4</v>
       </c>
@@ -2804,8 +6184,28 @@
       <c r="E166">
         <v>2006</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J166" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K166" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L166" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M166" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N166" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +6218,28 @@
       <c r="E167">
         <v>2020</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J167" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M167" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N167" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -2832,8 +6252,28 @@
       <c r="E168">
         <v>2012</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J168" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K168" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M168" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N168" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>8</v>
       </c>
@@ -2846,8 +6286,28 @@
       <c r="E169">
         <v>2002</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J169" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K169" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M169" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N169" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>8</v>
       </c>
@@ -2860,8 +6320,28 @@
       <c r="E170">
         <v>2004</v>
       </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J170" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M170" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N170" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>10</v>
       </c>
@@ -2874,8 +6354,28 @@
       <c r="E171">
         <v>2007</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J171" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M171" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N171" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>10</v>
       </c>
@@ -2888,8 +6388,28 @@
       <c r="E172">
         <v>2016</v>
       </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J172" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K172" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L172" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M172" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N172" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +6422,28 @@
       <c r="E173">
         <v>2007</v>
       </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J173" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K173" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L173" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M173" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -2916,8 +6456,28 @@
       <c r="E174">
         <v>2000</v>
       </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J174" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L174" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M174" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N174" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -2930,8 +6490,28 @@
       <c r="E175">
         <v>2019</v>
       </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J175" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K175" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L175" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M175" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N175" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +6524,28 @@
       <c r="E176">
         <v>2017</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J176" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K176" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M176" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N176" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>0</v>
       </c>
@@ -2958,8 +6558,28 @@
       <c r="E177">
         <v>2017</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J177" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M177" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N177" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>10</v>
       </c>
@@ -2972,8 +6592,28 @@
       <c r="E178">
         <v>2011</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J178" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L178" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M178" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N178" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +6626,28 @@
       <c r="E179">
         <v>2001</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J179" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L179" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M179" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N179" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>8</v>
       </c>
@@ -3000,8 +6660,28 @@
       <c r="E180">
         <v>2009</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J180" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M180" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N180" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -3014,8 +6694,28 @@
       <c r="E181">
         <v>2018</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J181" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K181" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L181" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M181" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N181" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -3028,8 +6728,28 @@
       <c r="E182">
         <v>2018</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J182" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K182" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M182" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N182" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>8</v>
       </c>
@@ -3042,8 +6762,28 @@
       <c r="E183">
         <v>2011</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J183" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K183" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M183" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N183" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>4</v>
       </c>
@@ -3056,8 +6796,28 @@
       <c r="E184">
         <v>2005</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J184" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K184" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M184" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N184" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>8</v>
       </c>
@@ -3070,8 +6830,28 @@
       <c r="E185">
         <v>2000</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J185" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M185" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N185" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>0</v>
       </c>
@@ -3084,8 +6864,28 @@
       <c r="E186">
         <v>2004</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J186" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K186" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M186" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N186" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +6898,28 @@
       <c r="E187">
         <v>2014</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J187" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K187" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M187" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N187" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>8</v>
       </c>
@@ -3112,8 +6932,28 @@
       <c r="E188">
         <v>2012</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J188" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K188" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M188" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N188" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +6966,28 @@
       <c r="E189">
         <v>2016</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J189" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M189" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N189" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>3</v>
       </c>
@@ -3140,8 +7000,28 @@
       <c r="E190">
         <v>2014</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J190" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K190" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L190" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M190" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N190" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>10</v>
       </c>
@@ -3154,8 +7034,28 @@
       <c r="E191">
         <v>2000</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J191" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K191" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M191" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N191" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +7068,28 @@
       <c r="E192">
         <v>2009</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J192" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K192" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L192" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M192" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N192" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>8</v>
       </c>
@@ -3182,8 +7102,28 @@
       <c r="E193">
         <v>2001</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J193" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K193" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M193" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N193" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +7136,28 @@
       <c r="E194">
         <v>2005</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J194" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K194" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L194" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M194" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N194" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>4</v>
       </c>
@@ -3210,8 +7170,28 @@
       <c r="E195">
         <v>2013</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J195" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K195" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M195" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N195" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>10</v>
       </c>
@@ -3224,8 +7204,28 @@
       <c r="E196">
         <v>2008</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J196" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N196" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>10</v>
       </c>
@@ -3238,8 +7238,28 @@
       <c r="E197">
         <v>2010</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J197" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M197" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N197" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>8</v>
       </c>
@@ -3252,8 +7272,28 @@
       <c r="E198">
         <v>2020</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J198" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M198" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N198" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +7306,28 @@
       <c r="E199">
         <v>2003</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J199" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L199" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M199" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N199" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -3280,8 +7340,28 @@
       <c r="E200">
         <v>2013</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J200" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K200" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L200" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M200" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N200" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>8</v>
       </c>
@@ -3294,8 +7374,28 @@
       <c r="E201">
         <v>2004</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J201" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K201" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M201" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N201" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>10</v>
       </c>
@@ -3308,8 +7408,28 @@
       <c r="E202">
         <v>2017</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J202" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L202" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N202" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -3322,8 +7442,28 @@
       <c r="E203">
         <v>2014</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J203" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L203" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M203" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N203" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>0</v>
       </c>
@@ -3336,8 +7476,28 @@
       <c r="E204">
         <v>2017</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J204" s="12">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K204" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L204" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M204" s="13">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N204" s="14">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>3</v>
       </c>
@@ -3350,11 +7510,57 @@
       <c r="E205">
         <v>2004</v>
       </c>
+      <c r="J205" s="15">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Action",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="16">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Comedy",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L205" s="16">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Horror",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M205" s="16">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Drama",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N205" s="17">
+        <f>IF(Table1[[#This Row],[Type Of Movie]]="Thriller",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>18</v>
+      </c>
+      <c r="J206" s="21">
+        <f>SUM(J6:J205)</f>
+        <v>31</v>
+      </c>
+      <c r="K206" s="22">
+        <f>SUM(K6:K205)</f>
+        <v>48</v>
+      </c>
+      <c r="L206" s="22">
+        <f>SUM(L6:L205)</f>
+        <v>49</v>
+      </c>
+      <c r="M206" s="22">
+        <f>SUM(M6:N205)</f>
+        <v>72</v>
+      </c>
+      <c r="N206" s="23">
+        <f>SUM(N6:N205)</f>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="J3:N3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
+++ b/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
@@ -455,6 +455,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,9 +483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,21 +827,21 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -850,57 +850,57 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="29" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="29" t="s">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="29" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="29" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="29" t="s">
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="29" t="s">
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="32"/>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -1128,7 +1128,7 @@
         <f>IF(AND(Table1[[#This Row],[Popular Actor]]="No",Table1[[#This Row],[Country Of Movie]]="Pakistan"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="38" t="s">
+      <c r="AM6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="AN6" s="24">
@@ -27502,39 +27502,39 @@
         <v>18</v>
       </c>
       <c r="J206" s="12">
-        <f>SUM(J6:J205)</f>
+        <f t="shared" ref="J206:R206" si="0">SUM(J6:J205)</f>
         <v>31</v>
       </c>
       <c r="K206" s="13">
-        <f>SUM(K6:K205)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L206" s="13">
-        <f>SUM(L6:L205)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="M206" s="13">
-        <f>SUM(M6:M205)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="N206" s="14">
-        <f>SUM(N6:N205)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O206" s="19">
-        <f>SUM(O6:O205)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P206" s="20">
-        <f>SUM(P6:P205)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="Q206" s="20">
-        <f>SUM(Q6:Q205)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="R206" s="21">
-        <f>SUM(R6:R205)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>

--- a/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
+++ b/Excel Data Analysis/Section#04/2 - Extracting Data.xlsx
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AT206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
